--- a/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">

--- a/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">
@@ -962,7 +962,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>125.5</v>
+        <v>248.739</v>
       </c>
     </row>
     <row r="15" ht="23.25" customHeight="1" s="19" thickBot="1">
@@ -980,7 +980,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="14" t="n">
-        <v>192.5</v>
+        <v>381.532</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="19">
@@ -1057,7 +1057,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="13" t="n">
-        <v>231</v>
+        <v>457.837</v>
       </c>
     </row>
     <row r="39" ht="23.25" customHeight="1" s="19" thickBot="1">
@@ -1075,7 +1075,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="14" t="n">
-        <v>248</v>
+        <v>491.531</v>
       </c>
     </row>
     <row r="50">
@@ -1087,11 +1087,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">

--- a/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">
@@ -962,7 +962,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>248.739</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="15" ht="23.25" customHeight="1" s="19" thickBot="1">
@@ -980,7 +980,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="14" t="n">
-        <v>381.532</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="19">
@@ -1057,7 +1057,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="13" t="n">
-        <v>457.837</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" ht="23.25" customHeight="1" s="19" thickBot="1">
@@ -1075,7 +1075,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="14" t="n">
-        <v>491.531</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50">
@@ -1087,11 +1087,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">
@@ -1087,11 +1087,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">
@@ -1087,11 +1087,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">
@@ -1087,11 +1087,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/server/LISTAS/mi/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">
@@ -962,7 +962,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>125.5</v>
+        <v>271.126</v>
       </c>
     </row>
     <row r="15" ht="23.25" customHeight="1" s="19" thickBot="1">
@@ -980,7 +980,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="14" t="n">
-        <v>192.5</v>
+        <v>415.87</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="19">
@@ -1057,7 +1057,7 @@
         <v>100</v>
       </c>
       <c r="D38" s="13" t="n">
-        <v>231</v>
+        <v>499.042</v>
       </c>
     </row>
     <row r="39" ht="23.25" customHeight="1" s="19" thickBot="1">
@@ -1075,7 +1075,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="14" t="n">
-        <v>248</v>
+        <v>535.769</v>
       </c>
     </row>
     <row r="50">
@@ -1087,11 +1087,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
